--- a/biology/Botanique/Dacryodes_camerunensis/Dacryodes_camerunensis.xlsx
+++ b/biology/Botanique/Dacryodes_camerunensis/Dacryodes_camerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dacryodes camerunensis Onana est une espèce d'arbres tropicaux de la famille des Burseraceae, présent en Afrique centrale, au Cameroun, au Gabon et en République du Congo. Elle a longtemps été confondue avec Dacryodes klaineana du fait de la similitude de leurs inflorescences[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dacryodes camerunensis Onana est une espèce d'arbres tropicaux de la famille des Burseraceae, présent en Afrique centrale, au Cameroun, au Gabon et en République du Congo. Elle a longtemps été confondue avec Dacryodes klaineana du fait de la similitude de leurs inflorescences.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre atteignant 45 m de hauteur, avec un diamètre d'environ 65 cm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre atteignant 45 m de hauteur, avec un diamètre d'environ 65 cm.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve dans la forêt équatoriale primaire et secondaire, souvent sur des rives de cours d'eau inondables, à une altitude comprise entre 400 et 550 m[3].
-Dacryodes camerunensis a été observé sur sept sites différents dans des zones disjointes, au Cameroun (au sud d'Ebolowa et à Nkoemvone), au Gabon, (Lastoursville, Mbolzore, Oyem, Oveng) et en République du Congo (près de Brazzaville[2]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve dans la forêt équatoriale primaire et secondaire, souvent sur des rives de cours d'eau inondables, à une altitude comprise entre 400 et 550 m.
+Dacryodes camerunensis a été observé sur sept sites différents dans des zones disjointes, au Cameroun (au sud d'Ebolowa et à Nkoemvone), au Gabon, (Lastoursville, Mbolzore, Oyem, Oveng) et en République du Congo (près de Brazzaville).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce semble peu connue des populations : aucun nom local n'a été identifié. Généralement présente dans des zones non protégées, elle est vulnérable, menacée notamment par la déforestation liée à l'agriculture[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce semble peu connue des populations : aucun nom local n'a été identifié. Généralement présente dans des zones non protégées, elle est vulnérable, menacée notamment par la déforestation liée à l'agriculture.
 </t>
         </is>
       </c>
